--- a/ActiTime-Automation-Level3/TestScriptDataFiles/CreateUser.xlsx
+++ b/ActiTime-Automation-Level3/TestScriptDataFiles/CreateUser.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\CurrentWorkSpace\TestAutomation\ActiTime-Automation\TestScriptDataFiles\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="19380" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="TC02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <oleSize ref="A1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -116,8 +112,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,21 +441,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
@@ -467,7 +463,7 @@
     <col min="4" max="4" width="43.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -495,7 +491,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -509,7 +505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -523,7 +519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -537,7 +533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -551,7 +547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -565,7 +561,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
